--- a/xlsx/國民生產總值_intext.xlsx
+++ b/xlsx/國民生產總值_intext.xlsx
@@ -29,7 +29,7 @@
     <t>縮寫</t>
   </si>
   <si>
-    <t>政策_政策_美國_國民生產總值</t>
+    <t>体育运动_体育运动_南非_國民生產總值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E5%8A%A1</t>
